--- a/2016SuperRugby/Weekly Forecasts/Round_6.xlsx
+++ b/2016SuperRugby/Weekly Forecasts/Round_6.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RugbyPredictifier\RugbyPredictifier\2016SuperRugby\Weekly Forecasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
     <sheet name="Saturday" sheetId="2" r:id="rId2"/>
     <sheet name="Sunday" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -135,12 +140,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +430,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +516,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,6 +551,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,7 +727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -720,9 +735,15 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -745,41 +766,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.9570408</v>
+        <v>0.95704080000000002</v>
       </c>
       <c r="C2" s="6">
-        <v>0.0355276</v>
+        <v>3.5527599999999999E-2</v>
       </c>
       <c r="E2" s="6">
-        <v>0.379617</v>
+        <v>0.37961699999999998</v>
       </c>
       <c r="F2" s="6">
         <v>0.5949044</v>
       </c>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>37.9432954</v>
+        <v>37.943295399999997</v>
       </c>
       <c r="C3" s="7">
-        <v>8.9506144</v>
+        <v>8.9506143999999992</v>
       </c>
       <c r="E3" s="7">
-        <v>26.2717948</v>
+        <v>26.271794799999999</v>
       </c>
       <c r="F3" s="7">
         <v>31.8567848</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -796,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -813,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -830,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -847,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -864,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -881,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -898,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -915,7 +936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -932,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -949,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -966,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1102,35 +1123,35 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.7708444</v>
+        <v>0.77084439999999999</v>
       </c>
       <c r="C23" s="6">
-        <v>0.0001132</v>
+        <v>1.132E-4</v>
       </c>
       <c r="E23" s="6">
-        <v>0.1349838</v>
+        <v>0.13498379999999999</v>
       </c>
       <c r="F23" s="6">
-        <v>0.1982394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.19823940000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0.0243708</v>
+        <v>2.4370800000000001E-2</v>
       </c>
       <c r="C24" s="6">
-        <v>0.059237</v>
+        <v>5.9236999999999998E-2</v>
       </c>
       <c r="E24" s="6">
-        <v>0.131572</v>
+        <v>0.13157199999999999</v>
       </c>
       <c r="F24" s="6">
         <v>0.1185932</v>
@@ -1142,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1150,9 +1171,19 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
@@ -1193,65 +1224,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.4173782</v>
+        <v>0.41737819999999998</v>
       </c>
       <c r="C2" s="6">
         <v>0.5577242</v>
       </c>
       <c r="E2" s="6">
-        <v>0.4426648</v>
+        <v>0.44266480000000002</v>
       </c>
       <c r="F2" s="6">
-        <v>0.537067</v>
+        <v>0.53706699999999996</v>
       </c>
       <c r="H2" s="6">
-        <v>0.2343362</v>
+        <v>0.23433619999999999</v>
       </c>
       <c r="I2" s="6">
-        <v>0.7483074</v>
+        <v>0.74830739999999996</v>
       </c>
       <c r="K2" s="6">
-        <v>0.5943258</v>
+        <v>0.59432580000000002</v>
       </c>
       <c r="L2" s="6">
-        <v>0.388524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.38852399999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>24.610179</v>
+        <v>24.610178999999999</v>
       </c>
       <c r="C3" s="7">
-        <v>27.9499646</v>
+        <v>27.949964600000001</v>
       </c>
       <c r="E3" s="7">
-        <v>33.7424852</v>
+        <v>33.742485199999997</v>
       </c>
       <c r="F3" s="7">
-        <v>36.3779104</v>
+        <v>36.377910399999998</v>
       </c>
       <c r="H3" s="7">
-        <v>30.7172682</v>
+        <v>30.717268199999999</v>
       </c>
       <c r="I3" s="7">
-        <v>47.2223818</v>
+        <v>47.222381800000001</v>
       </c>
       <c r="K3" s="7">
-        <v>35.4115128</v>
+        <v>35.411512799999997</v>
       </c>
       <c r="L3" s="7">
-        <v>29.7960538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
+        <v>29.796053799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1773,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1802,47 +1833,47 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.0481898</v>
+        <v>4.8189799999999998E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.2705444</v>
+        <v>0.27054440000000002</v>
       </c>
       <c r="E23" s="6">
         <v>0.1020794</v>
       </c>
       <c r="F23" s="6">
-        <v>0.2943254</v>
+        <v>0.29432540000000001</v>
       </c>
       <c r="H23" s="6">
-        <v>0.0586594</v>
+        <v>5.86594E-2</v>
       </c>
       <c r="I23" s="6">
-        <v>0.4137444</v>
+        <v>0.41374440000000001</v>
       </c>
       <c r="K23" s="6">
         <v>0.2030942</v>
       </c>
       <c r="L23" s="6">
-        <v>0.1308518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.13085179999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0.1552638</v>
+        <v>0.15526380000000001</v>
       </c>
       <c r="C24" s="6">
         <v>0.1473448</v>
       </c>
       <c r="E24" s="6">
-        <v>0.129203</v>
+        <v>0.12920300000000001</v>
       </c>
       <c r="F24" s="6">
         <v>0.1247168</v>
@@ -1851,13 +1882,13 @@
         <v>0.1008038</v>
       </c>
       <c r="I24" s="6">
-        <v>0.080457</v>
+        <v>8.0457000000000001E-2</v>
       </c>
       <c r="K24" s="6">
         <v>0.1243374</v>
       </c>
       <c r="L24" s="6">
-        <v>0.136135</v>
+        <v>0.13613500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,9 +1905,13 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
         <v>36</v>
       </c>
@@ -1890,29 +1925,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.6398436</v>
+        <v>0.63984359999999996</v>
       </c>
       <c r="C2" s="6">
-        <v>0.3376568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.33765679999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>29.1781988</v>
+        <v>29.178198800000001</v>
       </c>
       <c r="C3" s="7">
-        <v>21.8969586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
+        <v>21.896958600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +2024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2044,7 +2079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2077,7 +2112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2121,18 +2156,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.2768426</v>
+        <v>0.27684259999999999</v>
       </c>
       <c r="C23" s="6">
-        <v>0.0537814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>5.37814E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
